--- a/game/resultspace/ФОН/МЭР ФОН.xlsx
+++ b/game/resultspace/ФОН/МЭР ФОН.xlsx
@@ -789,7 +789,7 @@
         <v>-0</v>
       </c>
       <c r="M2">
-        <v>104.2868957519531</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>-0</v>
@@ -801,7 +801,7 @@
         <v>-0</v>
       </c>
       <c r="Q2">
-        <v>94.55279541015624</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>-0</v>
@@ -813,7 +813,7 @@
         <v>-0</v>
       </c>
       <c r="U2">
-        <v>113.2165908813477</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>-0</v>
@@ -825,7 +825,7 @@
         <v>-0</v>
       </c>
       <c r="Y2">
-        <v>99.60940551757812</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>-0</v>
@@ -837,7 +837,7 @@
         <v>-0</v>
       </c>
       <c r="AC2">
-        <v>100.7277679443359</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>-0</v>
@@ -849,88 +849,88 @@
         <v>-0</v>
       </c>
       <c r="AG2">
-        <v>96.70323181152344</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>199.9987945556641</v>
+        <v>-0</v>
       </c>
       <c r="AI2">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ2">
-        <v>45239.16015625</v>
+        <v>-0</v>
       </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>78.71120452880859</v>
+        <v>-0</v>
       </c>
       <c r="AM2">
-        <v>78.71120452880859</v>
+        <v>-0</v>
       </c>
       <c r="AN2">
-        <v>17807.78125</v>
+        <v>-0</v>
       </c>
       <c r="AO2">
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AQ2">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR2">
-        <v>45199.140625</v>
+        <v>-0</v>
       </c>
       <c r="AS2">
         <v>0</v>
       </c>
       <c r="AT2">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AU2">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AV2">
-        <v>45183.31640625</v>
+        <v>-0</v>
       </c>
       <c r="AW2">
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AY2">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AZ2">
-        <v>45194.6875</v>
+        <v>-0</v>
       </c>
       <c r="BA2">
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>159.9981994628906</v>
+        <v>-0</v>
       </c>
       <c r="BC2">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BD2">
-        <v>36191.125</v>
+        <v>-0</v>
       </c>
       <c r="BE2">
         <v>0</v>
       </c>
       <c r="BF2">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BG2">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BH2">
-        <v>36168.6015625</v>
+        <v>-0</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>-0</v>
       </c>
       <c r="M3">
-        <v>38.77456665039063</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>-0</v>
@@ -986,7 +986,7 @@
         <v>-0</v>
       </c>
       <c r="Q3">
-        <v>33.90179061889648</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>-0</v>
@@ -998,7 +998,7 @@
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>41.05184936523438</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>-0</v>
@@ -1010,7 +1010,7 @@
         <v>-0</v>
       </c>
       <c r="Y3">
-        <v>39.73114395141602</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>-0</v>
@@ -1022,7 +1022,7 @@
         <v>-0</v>
       </c>
       <c r="AC3">
-        <v>37.4748420715332</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>-0</v>
@@ -1034,88 +1034,88 @@
         <v>-0</v>
       </c>
       <c r="AG3">
-        <v>37.1927375793457</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>199.9986114501953</v>
+        <v>-0</v>
       </c>
       <c r="AI3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ3">
-        <v>45239.1171875</v>
+        <v>-0</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>77.10918426513672</v>
+        <v>-0</v>
       </c>
       <c r="AM3">
-        <v>77.10918426513672</v>
+        <v>-0</v>
       </c>
       <c r="AN3">
-        <v>17441.458984375</v>
+        <v>-0</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AQ3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR3">
-        <v>45379.578125</v>
+        <v>-0</v>
       </c>
       <c r="AS3">
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AU3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AV3">
-        <v>45522.1875</v>
+        <v>-0</v>
       </c>
       <c r="AW3">
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AY3">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AZ3">
-        <v>45423.9296875</v>
+        <v>-0</v>
       </c>
       <c r="BA3">
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>159.9980926513672</v>
+        <v>-0</v>
       </c>
       <c r="BC3">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BD3">
-        <v>36191.10546875</v>
+        <v>-0</v>
       </c>
       <c r="BE3">
         <v>0</v>
       </c>
       <c r="BF3">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BG3">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BH3">
-        <v>36207.86328125</v>
+        <v>-0</v>
       </c>
       <c r="BI3">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>30.69988950093587</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>26.944154103597</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>32.34409554799398</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>31.53878243764242</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>29.7219336827596</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -1219,88 +1219,88 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>29.48704719543457</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>199.998524983724</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>45233.79557291666</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>75.73485565185547</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>75.73485565185547</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>17130.55403645833</v>
+        <v>0</v>
       </c>
       <c r="AO4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>45567.82942708334</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>45792.30338541666</v>
+        <v>0</v>
       </c>
       <c r="AW4">
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>45652.62369791666</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>159.9980010986328</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>36190.82942708334</v>
+        <v>0</v>
       </c>
       <c r="BE4">
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>36313.26822916666</v>
+        <v>0</v>
       </c>
       <c r="BI4">
         <v>0</v>
@@ -1311,181 +1311,181 @@
         <v>43951</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5">
-        <v>22.62521235148112</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>19.98651758829752</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U5">
-        <v>23.63634173075358</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5">
-        <v>23.34642092386882</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC5">
-        <v>21.969025293986</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG5">
-        <v>21.78135681152344</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>199.9984385172526</v>
+        <v>-0</v>
       </c>
       <c r="AI5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AJ5">
-        <v>45228.47395833334</v>
+        <v>-0</v>
       </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>74.36052703857422</v>
+        <v>-0</v>
       </c>
       <c r="AM5">
-        <v>74.36052703857422</v>
+        <v>-0</v>
       </c>
       <c r="AN5">
-        <v>16819.64908854167</v>
+        <v>-0</v>
       </c>
       <c r="AO5">
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AQ5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AR5">
-        <v>45756.08072916666</v>
+        <v>-0</v>
       </c>
       <c r="AS5">
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AU5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AV5">
-        <v>46062.41927083334</v>
+        <v>-0</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AY5">
-        <v>200</v>
+        <v>-0</v>
       </c>
       <c r="AZ5">
-        <v>45881.31770833334</v>
+        <v>-0</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>159.9979095458984</v>
+        <v>-0</v>
       </c>
       <c r="BC5">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BD5">
-        <v>36190.55338541666</v>
+        <v>-0</v>
       </c>
       <c r="BE5">
         <v>0</v>
       </c>
       <c r="BF5">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BG5">
-        <v>160</v>
+        <v>-0</v>
       </c>
       <c r="BH5">
-        <v>36418.67317708334</v>
+        <v>-0</v>
       </c>
       <c r="BI5">
         <v>0</v>
@@ -1496,181 +1496,181 @@
         <v>43982</v>
       </c>
       <c r="B6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>14.55053520202637</v>
+        <v>52.14279174804688</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.02888107299805</v>
+        <v>47.277587890625</v>
       </c>
       <c r="R6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>14.92858791351319</v>
+        <v>56.60691833496094</v>
       </c>
       <c r="V6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>15.15405941009521</v>
+        <v>49.8017692565918</v>
       </c>
       <c r="Z6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>14.2161169052124</v>
+        <v>50.36209869384766</v>
       </c>
       <c r="AD6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>14.0756664276123</v>
+        <v>48.34656143188476</v>
       </c>
       <c r="AH6">
-        <v>199.9983520507812</v>
+        <v>99.99939727783205</v>
       </c>
       <c r="AI6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AJ6">
-        <v>45223.15234375</v>
+        <v>22619.580078125</v>
       </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>72.98619842529297</v>
+        <v>39.41131973266602</v>
       </c>
       <c r="AM6">
-        <v>72.98619842529297</v>
+        <v>39.41131973266602</v>
       </c>
       <c r="AN6">
-        <v>16508.744140625</v>
+        <v>8914.728515625</v>
       </c>
       <c r="AO6">
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AQ6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AR6">
-        <v>45944.33203125</v>
+        <v>22599.568359375</v>
       </c>
       <c r="AS6">
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AU6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AV6">
-        <v>46332.53515625</v>
+        <v>22591.564453125</v>
       </c>
       <c r="AW6">
         <v>0</v>
       </c>
       <c r="AX6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AY6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AZ6">
-        <v>46110.01171875</v>
+        <v>22597.34765625</v>
       </c>
       <c r="BA6">
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>159.9978179931641</v>
+        <v>79.99909973144531</v>
       </c>
       <c r="BC6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="BD6">
-        <v>36190.27734375</v>
+        <v>18095.568359375</v>
       </c>
       <c r="BE6">
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="BG6">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="BH6">
-        <v>36524.078125</v>
+        <v>18083.015625</v>
       </c>
       <c r="BI6">
         <v>0</v>
@@ -1681,181 +1681,181 @@
         <v>44012</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M7">
-        <v>10.50515842437744</v>
+        <v>104.2855834960938</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>9.072558164596558</v>
+        <v>94.55517578125</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U7">
-        <v>11.05596399307251</v>
+        <v>113.2138366699219</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7">
-        <v>10.97172045707703</v>
+        <v>99.60353851318359</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC7">
-        <v>10.26167225837708</v>
+        <v>100.7241973876953</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG7">
-        <v>10.15622305870056</v>
+        <v>96.69312286376952</v>
       </c>
       <c r="AH7">
-        <v>276.1230926513672</v>
+        <v>199.9987945556641</v>
       </c>
       <c r="AI7">
-        <v>276.1256561279297</v>
+        <v>200</v>
       </c>
       <c r="AJ7">
-        <v>63795.474609375</v>
+        <v>45239.16015625</v>
       </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>62.92920875549316</v>
+        <v>78.82263946533203</v>
       </c>
       <c r="AM7">
-        <v>62.92920875549316</v>
+        <v>78.82263946533203</v>
       </c>
       <c r="AN7">
-        <v>14234.0693359375</v>
+        <v>17829.45703125</v>
       </c>
       <c r="AO7">
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>188.52001953125</v>
+        <v>200</v>
       </c>
       <c r="AQ7">
-        <v>188.52001953125</v>
+        <v>200</v>
       </c>
       <c r="AR7">
-        <v>44565.36328125</v>
+        <v>45199.13671875</v>
       </c>
       <c r="AS7">
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>177.2240219116211</v>
+        <v>200</v>
       </c>
       <c r="AU7">
-        <v>177.2240219116211</v>
+        <v>200</v>
       </c>
       <c r="AV7">
-        <v>42155</v>
+        <v>45183.12890625</v>
       </c>
       <c r="AW7">
         <v>0</v>
       </c>
       <c r="AX7">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="AY7">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="AZ7">
-        <v>24195.00207519531</v>
+        <v>45194.6953125</v>
       </c>
       <c r="BA7">
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>159.997673034668</v>
+        <v>159.9981994628906</v>
       </c>
       <c r="BC7">
         <v>160</v>
       </c>
       <c r="BD7">
-        <v>36180.66015625</v>
+        <v>36191.13671875</v>
       </c>
       <c r="BE7">
         <v>0</v>
       </c>
       <c r="BF7">
-        <v>160.0001220703125</v>
+        <v>160</v>
       </c>
       <c r="BG7">
-        <v>160.0001220703125</v>
+        <v>160</v>
       </c>
       <c r="BH7">
-        <v>36662.603515625</v>
+        <v>36166.03125</v>
       </c>
       <c r="BI7">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>-0</v>
       </c>
       <c r="M8">
-        <v>6.459781646728517</v>
+        <v>25.51862335205078</v>
       </c>
       <c r="N8">
         <v>-0</v>
@@ -1911,7 +1911,7 @@
         <v>-0</v>
       </c>
       <c r="Q8">
-        <v>5.116235256195068</v>
+        <v>22.55971145629883</v>
       </c>
       <c r="R8">
         <v>-0</v>
@@ -1923,7 +1923,7 @@
         <v>-0</v>
       </c>
       <c r="U8">
-        <v>7.183340072631836</v>
+        <v>25.86715316772461</v>
       </c>
       <c r="V8">
         <v>-0</v>
@@ -1935,7 +1935,7 @@
         <v>-0</v>
       </c>
       <c r="Y8">
-        <v>6.789381504058838</v>
+        <v>25.64652061462402</v>
       </c>
       <c r="Z8">
         <v>-0</v>
@@ -1947,7 +1947,7 @@
         <v>-0</v>
       </c>
       <c r="AC8">
-        <v>6.307227611541747</v>
+        <v>24.83899307250977</v>
       </c>
       <c r="AD8">
         <v>-0</v>
@@ -1959,52 +1959,52 @@
         <v>-0</v>
       </c>
       <c r="AG8">
-        <v>6.236779689788817</v>
+        <v>24.17489624023437</v>
       </c>
       <c r="AH8">
-        <v>352.2478332519531</v>
+        <v>596.7244873046875</v>
       </c>
       <c r="AI8">
-        <v>352.2513122558594</v>
+        <v>596.7281494140625</v>
       </c>
       <c r="AJ8">
-        <v>82367.796875</v>
+        <v>137191.71875</v>
       </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>52.87221908569336</v>
+        <v>60.36919403076172</v>
       </c>
       <c r="AM8">
-        <v>52.87221908569336</v>
+        <v>60.36919403076172</v>
       </c>
       <c r="AN8">
-        <v>11959.39453125</v>
+        <v>13655.33984375</v>
       </c>
       <c r="AO8">
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>177.0400390625</v>
+        <v>200</v>
       </c>
       <c r="AQ8">
-        <v>177.0400390625</v>
+        <v>200</v>
       </c>
       <c r="AR8">
-        <v>43186.39453125</v>
+        <v>45598.01953125</v>
       </c>
       <c r="AS8">
         <v>0</v>
       </c>
       <c r="AT8">
-        <v>154.4480438232422</v>
+        <v>200</v>
       </c>
       <c r="AU8">
-        <v>154.4480438232422</v>
+        <v>200</v>
       </c>
       <c r="AV8">
-        <v>37977.46484375</v>
+        <v>45841.83984375</v>
       </c>
       <c r="AW8">
         <v>0</v>
@@ -2016,31 +2016,31 @@
         <v>10</v>
       </c>
       <c r="AZ8">
-        <v>2279.992431640625</v>
+        <v>2261.9716796875</v>
       </c>
       <c r="BA8">
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>159.9975280761719</v>
+        <v>159.9980316162109</v>
       </c>
       <c r="BC8">
         <v>160</v>
       </c>
       <c r="BD8">
-        <v>36171.04296875</v>
+        <v>36191.1015625</v>
       </c>
       <c r="BE8">
         <v>0</v>
       </c>
       <c r="BF8">
-        <v>160.000244140625</v>
+        <v>160</v>
       </c>
       <c r="BG8">
-        <v>160.000244140625</v>
+        <v>160</v>
       </c>
       <c r="BH8">
-        <v>36801.12890625</v>
+        <v>36330.56640625</v>
       </c>
       <c r="BI8">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>-0</v>
       </c>
       <c r="M9">
-        <v>5.593898296356201</v>
+        <v>15.04324054718018</v>
       </c>
       <c r="N9">
         <v>-0</v>
@@ -2096,7 +2096,7 @@
         <v>-0</v>
       </c>
       <c r="Q9">
-        <v>4.565160274505615</v>
+        <v>13.65802001953125</v>
       </c>
       <c r="R9">
         <v>-0</v>
@@ -2108,7 +2108,7 @@
         <v>-0</v>
       </c>
       <c r="U9">
-        <v>6.340922355651856</v>
+        <v>15.02557849884033</v>
       </c>
       <c r="V9">
         <v>-0</v>
@@ -2120,7 +2120,7 @@
         <v>-0</v>
       </c>
       <c r="Y9">
-        <v>5.242695808410645</v>
+        <v>16.17973136901855</v>
       </c>
       <c r="Z9">
         <v>-0</v>
@@ -2132,7 +2132,7 @@
         <v>-0</v>
       </c>
       <c r="AC9">
-        <v>5.537933349609375</v>
+        <v>14.91166114807129</v>
       </c>
       <c r="AD9">
         <v>-0</v>
@@ -2144,76 +2144,76 @@
         <v>-0</v>
       </c>
       <c r="AG9">
-        <v>5.070198535919189</v>
+        <v>14.99064731597901</v>
       </c>
       <c r="AH9">
-        <v>314.9212951660156</v>
+        <v>492.021484375</v>
       </c>
       <c r="AI9">
-        <v>314.9247436523438</v>
+        <v>492.0250854492188</v>
       </c>
       <c r="AJ9">
-        <v>74106.953125</v>
+        <v>113799.4296875</v>
       </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>51.75780487060547</v>
+        <v>59.07065200805664</v>
       </c>
       <c r="AM9">
-        <v>51.75780487060547</v>
+        <v>59.07065200805664</v>
       </c>
       <c r="AN9">
-        <v>11707.369140625</v>
+        <v>13361.6142578125</v>
       </c>
       <c r="AO9">
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>154.0432586669922</v>
+        <v>200</v>
       </c>
       <c r="AQ9">
-        <v>154.0432586669922</v>
+        <v>200</v>
       </c>
       <c r="AR9">
-        <v>37329.38671875</v>
+        <v>45906.86328125</v>
       </c>
       <c r="AS9">
         <v>0</v>
       </c>
       <c r="AT9">
-        <v>134.6457061767578</v>
+        <v>200</v>
       </c>
       <c r="AU9">
-        <v>134.6457061767578</v>
+        <v>200</v>
       </c>
       <c r="AV9">
-        <v>32959.59765625</v>
+        <v>46349.23828125</v>
       </c>
       <c r="AW9">
         <v>0</v>
       </c>
       <c r="AX9">
-        <v>149.7531127929688</v>
+        <v>311.6222229003906</v>
       </c>
       <c r="AY9">
-        <v>149.7531127929688</v>
+        <v>311.6222229003906</v>
       </c>
       <c r="AZ9">
-        <v>34870.30859375</v>
+        <v>71018.359375</v>
       </c>
       <c r="BA9">
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>9.999547004699707</v>
+        <v>9.99976634979248</v>
       </c>
       <c r="BC9">
-        <v>9.999994277954102</v>
+        <v>10</v>
       </c>
       <c r="BD9">
-        <v>2261.375</v>
+        <v>2261.918701171875</v>
       </c>
       <c r="BE9">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>160</v>
       </c>
       <c r="BH9">
-        <v>36930.94921875</v>
+        <v>36459.16015625</v>
       </c>
       <c r="BI9">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>-0</v>
       </c>
       <c r="M10">
-        <v>5.019241333007812</v>
+        <v>9.99228572845459</v>
       </c>
       <c r="N10">
         <v>-0</v>
@@ -2281,7 +2281,7 @@
         <v>-0</v>
       </c>
       <c r="Q10">
-        <v>4.31085729598999</v>
+        <v>8.687122344970701</v>
       </c>
       <c r="R10">
         <v>-0</v>
@@ -2293,7 +2293,7 @@
         <v>-0</v>
       </c>
       <c r="U10">
-        <v>5.959098339080811</v>
+        <v>9.828543663024902</v>
       </c>
       <c r="V10">
         <v>-0</v>
@@ -2305,7 +2305,7 @@
         <v>-0</v>
       </c>
       <c r="Y10">
-        <v>4.671452045440674</v>
+        <v>11.22615432739258</v>
       </c>
       <c r="Z10">
         <v>-0</v>
@@ -2317,7 +2317,7 @@
         <v>-0</v>
       </c>
       <c r="AC10">
-        <v>5.07334566116333</v>
+        <v>9.597916603088381</v>
       </c>
       <c r="AD10">
         <v>-0</v>
@@ -2329,88 +2329,88 @@
         <v>-0</v>
       </c>
       <c r="AG10">
-        <v>4.572107791900635</v>
+        <v>9.807744026184082</v>
       </c>
       <c r="AH10">
-        <v>293.5282897949219</v>
+        <v>392.3944702148438</v>
       </c>
       <c r="AI10">
-        <v>293.5316467285156</v>
+        <v>392.3979797363281</v>
       </c>
       <c r="AJ10">
-        <v>68366.6171875</v>
+        <v>90977.96875</v>
       </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>50.69433975219727</v>
+        <v>57.86490249633789</v>
       </c>
       <c r="AM10">
-        <v>50.69433975219727</v>
+        <v>57.86490249633789</v>
       </c>
       <c r="AN10">
-        <v>11466.849609375</v>
+        <v>13088.876953125</v>
       </c>
       <c r="AO10">
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>109.9929428100586</v>
+        <v>222.9291839599609</v>
       </c>
       <c r="AQ10">
-        <v>109.9929428100586</v>
+        <v>222.9291839599609</v>
       </c>
       <c r="AR10">
-        <v>24642.69921875</v>
+        <v>52034.75390625</v>
       </c>
       <c r="AS10">
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>121.9619445800781</v>
+        <v>200</v>
       </c>
       <c r="AU10">
-        <v>121.9619445800781</v>
+        <v>200</v>
       </c>
       <c r="AV10">
-        <v>29365.638671875</v>
+        <v>47471.37890625</v>
       </c>
       <c r="AW10">
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>130.9002685546875</v>
+        <v>227.5712280273437</v>
       </c>
       <c r="AY10">
-        <v>130.9002685546875</v>
+        <v>227.5712280273437</v>
       </c>
       <c r="AZ10">
-        <v>30865.79296875</v>
+        <v>55647.58203125</v>
       </c>
       <c r="BA10">
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>313.9862365722656</v>
+        <v>377.9659118652344</v>
       </c>
       <c r="BC10">
-        <v>313.9906921386719</v>
+        <v>377.9705200195312</v>
       </c>
       <c r="BD10">
-        <v>72515.1640625</v>
+        <v>86724.8046875</v>
       </c>
       <c r="BE10">
         <v>0</v>
       </c>
       <c r="BF10">
-        <v>10.00001335144043</v>
+        <v>10.0000057220459</v>
       </c>
       <c r="BG10">
-        <v>10.00001335144043</v>
+        <v>10.0000057220459</v>
       </c>
       <c r="BH10">
-        <v>2275.148681640625</v>
+        <v>2261.97216796875</v>
       </c>
       <c r="BI10">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>-0</v>
       </c>
       <c r="M11">
-        <v>4.659755229949951</v>
+        <v>7.196599960327148</v>
       </c>
       <c r="N11">
         <v>-0</v>
@@ -2466,7 +2466,7 @@
         <v>-0</v>
       </c>
       <c r="Q11">
-        <v>4.066277503967285</v>
+        <v>5.720249652862549</v>
       </c>
       <c r="R11">
         <v>-0</v>
@@ -2478,7 +2478,7 @@
         <v>-0</v>
       </c>
       <c r="U11">
-        <v>5.626676559448242</v>
+        <v>8.098254203796388</v>
       </c>
       <c r="V11">
         <v>-0</v>
@@ -2490,7 +2490,7 @@
         <v>-0</v>
       </c>
       <c r="Y11">
-        <v>4.450989246368408</v>
+        <v>7.9565749168396</v>
       </c>
       <c r="Z11">
         <v>-0</v>
@@ -2502,7 +2502,7 @@
         <v>-0</v>
       </c>
       <c r="AC11">
-        <v>4.648130416870117</v>
+        <v>6.91118860244751</v>
       </c>
       <c r="AD11">
         <v>-0</v>
@@ -2514,88 +2514,88 @@
         <v>-0</v>
       </c>
       <c r="AG11">
-        <v>4.182475566864014</v>
+        <v>7.019269466400146</v>
       </c>
       <c r="AH11">
-        <v>279.6402587890625</v>
+        <v>344.6539306640625</v>
       </c>
       <c r="AI11">
-        <v>279.6435852050781</v>
+        <v>344.6573791503906</v>
       </c>
       <c r="AJ11">
-        <v>64631.5234375</v>
+        <v>79685.4140625</v>
       </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>49.60750198364258</v>
+        <v>56.64407730102539</v>
       </c>
       <c r="AM11">
-        <v>49.60750198364258</v>
+        <v>56.64407730102539</v>
       </c>
       <c r="AN11">
-        <v>11221.0322265625</v>
+        <v>12812.7294921875</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>99.7363739013672</v>
+        <v>189.0159759521484</v>
       </c>
       <c r="AQ11">
-        <v>99.7363739013672</v>
+        <v>189.0159759521484</v>
       </c>
       <c r="AR11">
-        <v>22496.6484375</v>
+        <v>44638.04296875</v>
       </c>
       <c r="AS11">
         <v>0</v>
       </c>
       <c r="AT11">
-        <v>78.39090728759766</v>
+        <v>160.6746368408203</v>
       </c>
       <c r="AU11">
-        <v>78.39090728759766</v>
+        <v>160.6746368408203</v>
       </c>
       <c r="AV11">
-        <v>17481.470703125</v>
+        <v>37671.8671875</v>
       </c>
       <c r="AW11">
         <v>0</v>
       </c>
       <c r="AX11">
-        <v>119.2888870239258</v>
+        <v>179.7148284912109</v>
       </c>
       <c r="AY11">
-        <v>119.2888870239258</v>
+        <v>179.7148284912109</v>
       </c>
       <c r="AZ11">
-        <v>28190.71484375</v>
+        <v>44750.96875</v>
       </c>
       <c r="BA11">
         <v>0</v>
       </c>
       <c r="BB11">
-        <v>268.363037109375</v>
+        <v>348.9408874511719</v>
       </c>
       <c r="BC11">
-        <v>268.3674621582031</v>
+        <v>348.9454345703125</v>
       </c>
       <c r="BD11">
-        <v>61839.09765625</v>
+        <v>80006.5625</v>
       </c>
       <c r="BE11">
         <v>0</v>
       </c>
       <c r="BF11">
-        <v>116.6078262329102</v>
+        <v>171.3119049072266</v>
       </c>
       <c r="BG11">
-        <v>116.6078262329102</v>
+        <v>171.3119049072266</v>
       </c>
       <c r="BH11">
-        <v>26612.814453125</v>
+        <v>39337.7109375</v>
       </c>
       <c r="BI11">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>-0</v>
       </c>
       <c r="M12">
-        <v>4.461183071136475</v>
+        <v>6.258707523345947</v>
       </c>
       <c r="N12">
         <v>-0</v>
@@ -2651,7 +2651,7 @@
         <v>-0</v>
       </c>
       <c r="Q12">
-        <v>3.849994659423828</v>
+        <v>4.744200706481934</v>
       </c>
       <c r="R12">
         <v>-0</v>
@@ -2663,7 +2663,7 @@
         <v>-0</v>
       </c>
       <c r="U12">
-        <v>5.326260566711426</v>
+        <v>7.139584541320801</v>
       </c>
       <c r="V12">
         <v>-0</v>
@@ -2675,7 +2675,7 @@
         <v>-0</v>
       </c>
       <c r="Y12">
-        <v>4.24520206451416</v>
+        <v>6.124610900878906</v>
       </c>
       <c r="Z12">
         <v>-0</v>
@@ -2687,7 +2687,7 @@
         <v>-0</v>
       </c>
       <c r="AC12">
-        <v>4.303940296173097</v>
+        <v>5.993073463439941</v>
       </c>
       <c r="AD12">
         <v>-0</v>
@@ -2699,88 +2699,88 @@
         <v>-0</v>
       </c>
       <c r="AG12">
-        <v>3.868259191513062</v>
+        <v>5.59890079498291</v>
       </c>
       <c r="AH12">
-        <v>262.6655883789062</v>
+        <v>315.0965881347656</v>
       </c>
       <c r="AI12">
-        <v>262.6688537597656</v>
+        <v>315.0999755859375</v>
       </c>
       <c r="AJ12">
-        <v>60703.359375</v>
+        <v>72634.2109375</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>48.58327102661133</v>
+        <v>55.49209976196289</v>
       </c>
       <c r="AM12">
-        <v>48.58327102661133</v>
+        <v>55.49209976196289</v>
       </c>
       <c r="AN12">
-        <v>10989.3662109375</v>
+        <v>12552.1552734375</v>
       </c>
       <c r="AO12">
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>90.5435791015625</v>
+        <v>158.9368438720703</v>
       </c>
       <c r="AQ12">
-        <v>90.5435791015625</v>
+        <v>158.9368438720703</v>
       </c>
       <c r="AR12">
-        <v>20319.974609375</v>
+        <v>37533.05859375</v>
       </c>
       <c r="AS12">
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>71.87432861328125</v>
+        <v>133.3096160888672</v>
       </c>
       <c r="AU12">
-        <v>71.87432861328125</v>
+        <v>133.3096160888672</v>
       </c>
       <c r="AV12">
-        <v>16069.140625</v>
+        <v>31316.47265625</v>
       </c>
       <c r="AW12">
         <v>0</v>
       </c>
       <c r="AX12">
-        <v>111.7594909667969</v>
+        <v>153.6107940673828</v>
       </c>
       <c r="AY12">
-        <v>111.7594909667969</v>
+        <v>153.6107940673828</v>
       </c>
       <c r="AZ12">
-        <v>26483.48046875</v>
+        <v>37982.0390625</v>
       </c>
       <c r="BA12">
         <v>0</v>
       </c>
       <c r="BB12">
-        <v>228.1489868164062</v>
+        <v>329.2080993652344</v>
       </c>
       <c r="BC12">
-        <v>228.153335571289</v>
+        <v>329.2126159667969</v>
       </c>
       <c r="BD12">
-        <v>52591.46484375</v>
+        <v>75495.203125</v>
       </c>
       <c r="BE12">
         <v>0</v>
       </c>
       <c r="BF12">
-        <v>105.2966156005859</v>
+        <v>161.8557739257812</v>
       </c>
       <c r="BG12">
-        <v>105.2966156005859</v>
+        <v>161.8557739257812</v>
       </c>
       <c r="BH12">
-        <v>24008.1640625</v>
+        <v>37225.8046875</v>
       </c>
       <c r="BI12">
         <v>0</v>
